--- a/global/Chapter.xlsx
+++ b/global/Chapter.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\excel\trunk\global\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD458A-EA0B-4AC9-9990-A12FBAA67851}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chapter" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -157,14 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -200,158 +200,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,8 +227,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
     <fill>
@@ -388,194 +243,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="19">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -695,7 +364,7 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
         <color theme="1"/>
@@ -717,251 +386,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1032,85 +459,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="C1:Q9" totalsRowShown="0">
-  <autoFilter ref="C1:Q9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表3" displayName="表3" ref="C1:Q9" totalsRowShown="0">
+  <autoFilter ref="C1:Q9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="15">
-    <tableColumn id="1" name="章节id"/>
-    <tableColumn id="2" name="前置章节id"/>
-    <tableColumn id="3" name="解锁条件id"/>
-    <tableColumn id="4" name="章节图"/>
-    <tableColumn id="5" name="章节名"/>
-    <tableColumn id="6" name="章节描述"/>
-    <tableColumn id="7" name="章节星级总数"/>
-    <tableColumn id="8" name="章节宝箱1所需星数"/>
-    <tableColumn id="9" name="章节宝箱2所需星数"/>
-    <tableColumn id="10" name="章节宝箱3所需星数"/>
-    <tableColumn id="11" name="章节宝箱所需星数"/>
-    <tableColumn id="12" name="章节宝箱1掉落id"/>
-    <tableColumn id="13" name="章节宝箱2掉落id"/>
-    <tableColumn id="14" name="章节宝箱3掉落id"/>
-    <tableColumn id="15" name="章节宝箱掉落id"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="章节id"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="前置章节id"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="解锁条件id"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="章节图"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="章节名"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="章节描述"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="章节星级总数"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="章节宝箱1所需星数"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="章节宝箱2所需星数"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="章节宝箱3所需星数"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="章节宝箱所需星数">
+      <calculatedColumnFormula>J2&amp;","&amp;K2&amp;","&amp;L2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="章节宝箱1掉落id"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="章节宝箱2掉落id"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="章节宝箱3掉落id"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="章节宝箱掉落id">
+      <calculatedColumnFormula>N2&amp;","&amp;O2&amp;","&amp;P2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1368,37 +755,37 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E7" sqref="E7:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="22.925" style="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.575" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.2833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9.925" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.075" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.575" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7166666666667" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.575" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.1083333333333" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.8583333333333" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7166666666667" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.8583333333333" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.575" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="24.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.75" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1455,7 +842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" ht="33" spans="1:17">
+    <row r="2" spans="1:17" ht="33">
       <c r="A2" s="7"/>
       <c r="B2" s="8" t="s">
         <v>17</v>
@@ -1480,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="2:17">
+    <row r="3" spans="1:17">
       <c r="B3" s="12" t="s">
         <v>19</v>
       </c>
@@ -1518,7 +905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="1:17">
       <c r="B4" s="12" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="1:17">
       <c r="B5" s="12" t="s">
         <v>31</v>
       </c>
@@ -1582,7 +969,7 @@
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
     </row>
-    <row r="6" spans="2:17">
+    <row r="6" spans="1:17">
       <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1007,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:17">
+    <row r="7" spans="1:17">
       <c r="B7" s="12"/>
       <c r="C7" s="9">
         <v>1</v>
@@ -1629,7 +1016,7 @@
         <v>-1</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>37</v>
@@ -1641,20 +1028,20 @@
         <v>39</v>
       </c>
       <c r="I7" s="20">
+        <v>15</v>
+      </c>
+      <c r="J7" s="20">
         <v>3</v>
       </c>
-      <c r="J7" s="20">
-        <v>1</v>
-      </c>
       <c r="K7" s="20">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L7" s="20">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M7" s="21" t="str">
         <f>J7&amp;","&amp;K7&amp;","&amp;L7</f>
-        <v>1,2,3</v>
+        <v>3,9,15</v>
       </c>
       <c r="N7" s="20">
         <v>1</v>
@@ -1670,7 +1057,7 @@
         <v>1,2,3</v>
       </c>
     </row>
-    <row r="8" spans="2:17">
+    <row r="8" spans="1:17">
       <c r="B8" s="12"/>
       <c r="C8" s="9">
         <v>2</v>
@@ -1679,7 +1066,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>40</v>
@@ -1720,7 +1107,7 @@
         <v>4,5,6</v>
       </c>
     </row>
-    <row r="9" spans="3:17">
+    <row r="9" spans="1:17">
       <c r="C9" s="9">
         <v>3</v>
       </c>
@@ -1728,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>43</v>
@@ -1770,10 +1157,11 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>